--- a/public/storage/excel/Hakim Lukman.xlsx
+++ b/public/storage/excel/Hakim Lukman.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>LAPORAN KEUANGAN</t>
   </si>
   <si>
-    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-10 23:07:50</t>
+    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-11 19:19:49</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Nama Lengkap</t>
@@ -57,6 +60,15 @@
   </si>
   <si>
     <t>2023-06-10 23:02:26</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>2023-06-10 23:09:52</t>
+  </si>
+  <si>
+    <t>2023-06-11 19:12:53</t>
   </si>
 </sst>
 </file>
@@ -406,21 +418,22 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:FZ7"/>
+  <dimension ref="A1:FZ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="9.10" bestFit="true" style="0"/>
     <col min="53" max="53" width="9.10" bestFit="true" style="0"/>
     <col min="79" max="79" width="9.10" bestFit="true" style="0"/>
@@ -463,7 +476,6 @@
     <col min="111" max="111" width="9.10" bestFit="true" style="0"/>
     <col min="137" max="137" width="9.10" bestFit="true" style="0"/>
     <col min="163" max="163" width="9.10" bestFit="true" style="0"/>
-    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
     <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
     <col min="60" max="60" width="9.10" bestFit="true" style="0"/>
     <col min="86" max="86" width="9.10" bestFit="true" style="0"/>
@@ -608,88 +620,348 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:182">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+    <row r="4" spans="1:182">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:182">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>200000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:182">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>200000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:182">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>200000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:182">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>200000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:182">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>200000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:182">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>200000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:182">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>200000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:182">
+      <c r="A12">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:182">
-      <c r="A6" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>200000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:182">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>2023</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>200000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:182">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2023</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>200000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>200000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:182">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>200000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:182">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>200000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:182">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2023</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>200000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
